--- a/CGPA Calculation.xlsx
+++ b/CGPA Calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Data_Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6426B4-1097-4093-B2C2-0A1C130C7C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D7710B-16A1-4D2A-B07B-DF3EAC758CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A7431443-39FA-4E39-B74F-02E33CA93C58}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -512,13 +519,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -772,24 +779,24 @@
         <v>201.95999999999998</v>
       </c>
       <c r="O4" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="P4" s="2">
         <v>23</v>
       </c>
       <c r="Q4" s="2">
         <f>O4*P4</f>
-        <v>211.6</v>
+        <v>207.92</v>
       </c>
       <c r="R4" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S4" s="2">
         <v>23</v>
       </c>
       <c r="T4" s="2">
         <f>R4*S4</f>
-        <v>211.6</v>
+        <v>200.1</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -817,15 +824,15 @@
       </c>
       <c r="AB4" s="2">
         <f>E4+H4+K4+N4+Q4+T4+W4+Z4</f>
-        <v>1109.24</v>
+        <v>1094.06</v>
       </c>
       <c r="AC4" s="2">
         <f>AB4/AA4</f>
-        <v>8.5326153846153847</v>
+        <v>8.4158461538461538</v>
       </c>
       <c r="AD4" s="1">
         <f>AC4</f>
-        <v>8.5326153846153847</v>
+        <v>8.4158461538461538</v>
       </c>
     </row>
   </sheetData>
